--- a/biology/Zoologie/Ole_Engel_Heie/Ole_Engel_Heie.xlsx
+++ b/biology/Zoologie/Ole_Engel_Heie/Ole_Engel_Heie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">O. E. Heie, Ole E. Heie
 Ole Engel Heie (10 mai 1926 Copenhague - 4 janvier 2019 (à 92 ans)) est un professeur de biologie et entomologiste danois spécialisé dans les Aphidomorpha (pucerons et alliés). 
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a publié une monographie en six parties très influente sur les pucerons dans le cadre de la Fauna Entomologica Scandinavica (en) publiée de 1980 à 1995, où il a fourni des descriptions, des illustrations et des clés d'identification pour les 579 espèces connues du Danemark, de Finlande, de Norvège et de Suède. 
 Heie est né à Copenhague. Après avoir terminé son doctorat, en 1967, il est devenu professeur à la Danmarks Lærerhøjskole où il a travaillé jusqu'à sa retraite en 1994. Il a été professeur invité à la North Carolina State University et a continué comme professeur émérite à l'ancienne Danmarks Lærerhøjskole. 
-Il a dirigé l'Association danoise d'histoire naturelle et a été fait chevalier de l'Ordre de Dannebrog le 24 octobre 1990 par le Danemark. Heie a été grandement influencé par l'approche cladistique de Hennig et a écrit un livre sur l'évolution en 1969 et un autre sur la taxonomie en 1983[1].
-Il est décédé le 4 janvier 2019[2]
+Il a dirigé l'Association danoise d'histoire naturelle et a été fait chevalier de l'Ordre de Dannebrog le 24 octobre 1990 par le Danemark. Heie a été grandement influencé par l'approche cladistique de Hennig et a écrit un livre sur l'évolution en 1969 et un autre sur la taxonomie en 1983.
+Il est décédé le 4 janvier 2019
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre de Dannebrog</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
